--- a/doc/occurence.xlsx
+++ b/doc/occurence.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msergent\Desktop\SAV Sergent\kalendar\src\kalendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morandsergent/Documents/Projets/OrdoRomanum/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCAE3AA-F189-164B-A6D3-30506A3048F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24300" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24300" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -134,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -264,7 +265,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,51 +551,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="9">
         <v>3</v>
       </c>
       <c r="C2" s="11">
         <v>7</v>
       </c>
-      <c r="D2" s="14">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14">
-        <v>1</v>
-      </c>
-      <c r="G2" s="14">
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
         <v>1</v>
       </c>
       <c r="H2" s="12">
@@ -610,45 +610,45 @@
       <c r="K2" s="11">
         <v>7</v>
       </c>
-      <c r="L2" s="14">
-        <v>3</v>
-      </c>
-      <c r="M2" s="14">
-        <v>3</v>
-      </c>
-      <c r="N2" s="14">
+      <c r="L2" s="9">
+        <v>3</v>
+      </c>
+      <c r="M2" s="9">
+        <v>3</v>
+      </c>
+      <c r="N2" s="9">
         <v>3</v>
       </c>
       <c r="O2" s="11">
         <v>7</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="9">
         <v>3</v>
       </c>
       <c r="Q2" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="9">
         <v>3</v>
       </c>
       <c r="C3" s="11">
         <v>7</v>
       </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14">
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
         <v>1</v>
       </c>
       <c r="H3" s="13">
@@ -663,30 +663,30 @@
       <c r="K3" s="11">
         <v>7</v>
       </c>
-      <c r="L3" s="14">
-        <v>3</v>
-      </c>
-      <c r="M3" s="14">
-        <v>3</v>
-      </c>
-      <c r="N3" s="14">
+      <c r="L3" s="9">
+        <v>3</v>
+      </c>
+      <c r="M3" s="9">
+        <v>3</v>
+      </c>
+      <c r="N3" s="9">
         <v>3</v>
       </c>
       <c r="O3" s="11">
         <v>7</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="9">
         <v>3</v>
       </c>
       <c r="Q3" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
       <c r="C4" s="2">
@@ -704,10 +704,10 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="14">
-        <v>2</v>
-      </c>
-      <c r="I4" s="14">
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
         <v>2</v>
       </c>
       <c r="J4" s="3">
@@ -716,13 +716,13 @@
       <c r="K4" s="2">
         <v>2</v>
       </c>
-      <c r="L4" s="14">
-        <v>3</v>
-      </c>
-      <c r="M4" s="14">
-        <v>3</v>
-      </c>
-      <c r="N4" s="14">
+      <c r="L4" s="9">
+        <v>3</v>
+      </c>
+      <c r="M4" s="9">
+        <v>3</v>
+      </c>
+      <c r="N4" s="9">
         <v>3</v>
       </c>
       <c r="O4" s="2">
@@ -735,7 +735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -757,10 +757,10 @@
       <c r="G5" s="10">
         <v>5</v>
       </c>
-      <c r="H5" s="14">
-        <v>2</v>
-      </c>
-      <c r="I5" s="14">
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
         <v>2</v>
       </c>
       <c r="J5" s="3">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -810,10 +810,10 @@
       <c r="G6" s="10">
         <v>5</v>
       </c>
-      <c r="H6" s="14">
-        <v>2</v>
-      </c>
-      <c r="I6" s="14">
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
         <v>2</v>
       </c>
       <c r="J6" s="10">
@@ -841,7 +841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -863,10 +863,10 @@
       <c r="G7" s="10">
         <v>5</v>
       </c>
-      <c r="H7" s="14">
-        <v>2</v>
-      </c>
-      <c r="I7" s="14">
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
         <v>2</v>
       </c>
       <c r="J7" s="10">
@@ -894,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -916,10 +916,10 @@
       <c r="G8" s="10">
         <v>5</v>
       </c>
-      <c r="H8" s="14">
-        <v>2</v>
-      </c>
-      <c r="I8" s="14">
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
         <v>2</v>
       </c>
       <c r="J8">
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
         <v>1</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>2</v>
       </c>
@@ -1075,16 +1075,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="9">
         <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>4</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" s="10">
         <v>5</v>
       </c>
@@ -1100,7 +1099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <v>6</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="11">
         <v>7</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="13">
         <v>8</v>
       </c>
@@ -1124,7 +1123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>9</v>
       </c>
@@ -1132,7 +1131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1148,7 +1147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1156,7 +1155,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +1163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1172,7 +1171,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1188,7 +1187,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1196,7 +1195,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1204,7 +1203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1212,7 +1211,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1220,7 +1219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1228,7 +1227,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +1235,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1252,7 +1251,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
